--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Prince Edward Islands.xlsx
@@ -2903,13 +2903,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EED37F-A573-4D57-BD37-BD7F96FC38FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB25738-37B6-4BF6-B6B5-90AF25D36F10}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D44469C-3E3A-495F-8DC2-11504F8F3CB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F3BF95-A5E0-4C87-8F51-96FF17830CB8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE3735F-FFFA-48AA-BDAC-82CE03099926}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9146F0A9-9802-4F87-8A32-D715CD32BD1A}"/>
 </file>